--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)-Base_Real_Cash_Flow.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)-Base_Real_Cash_Flow.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Disclaimer</t>
   </si>
@@ -80,7 +80,10 @@
     <t xml:space="preserve">Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
   </si>
   <si>
-    <t>Monthly Cash Flow Report</t>
+    <t>AllowNegative: Allow negative on Lattice</t>
+  </si>
+  <si>
+    <t>MONTHLY CASH FLOW REPORT</t>
   </si>
   <si>
     <t xml:space="preserve">Portfolio Name: jsliu  bank test &amp; city (HF)-201912</t>
@@ -89,7 +92,7 @@
     <t xml:space="preserve">Cycle: December, 2019        Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Printed on: 03/25/20 4:48:32 AM</t>
+    <t>Printed on: 04/13/20 2:03:49 PM</t>
   </si>
   <si>
     <t>Date</t>
@@ -2381,12 +2384,12 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>=DATATEMP!$A$2:$A$13</c:f>
+              <c:f>='DATATEMP'!$A$2:$A$13</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>=DATATEMP!$D$2:$D$13</c:f>
+              <c:f>='DATATEMP'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;\-#,##0.00;\-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2584,8 +2587,8 @@
           </c:val>
         </ser>
         <c:overlap val="100"/>
-        <c:axId val="83384960"/>
-        <c:axId val="91066752"/>
+        <c:axId val="120125312"/>
+        <c:axId val="128933888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2624,11 +2627,11 @@
           <c:smooth val="0"/>
         </ser>
         <c:smooth val="0"/>
-        <c:axId val="83384960"/>
-        <c:axId val="91066752"/>
+        <c:axId val="120125312"/>
+        <c:axId val="128933888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83384960"/>
+        <c:axId val="120125312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,13 +2639,13 @@
         <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="91066752"/>
+        <c:crossAx val="128933888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91066752"/>
+        <c:axId val="128933888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +2659,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83384960"/>
+        <c:crossAx val="120125312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2669,7 +2672,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3226,7 +3229,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="251" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="251"/>
       <c r="C1" s="251"/>
@@ -3242,7 +3245,7 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="252" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="252"/>
       <c r="C2" s="253"/>
@@ -3258,7 +3261,7 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="239" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="241"/>
       <c r="C3" s="241"/>
@@ -3271,12 +3274,12 @@
       <c r="J3" s="241"/>
       <c r="K3" s="241"/>
       <c r="L3" s="242" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="239" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="241"/>
       <c r="C4" s="241"/>
@@ -3291,7 +3294,7 @@
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="239" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="241"/>
       <c r="C5" s="241"/>
@@ -3304,51 +3307,51 @@
       <c r="J5" s="241"/>
       <c r="K5" s="241"/>
       <c r="L5" s="242" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="5.1" customHeight="1"/>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="240" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="244" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="244" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="244" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="244" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="244" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I7" s="244" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="244" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="244" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" s="244" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="257" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="258"/>
       <c r="C8" s="258"/>
@@ -4732,7 +4735,7 @@
     </row>
     <row r="46">
       <c r="A46" s="257" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" s="259"/>
       <c r="C46" s="259"/>
@@ -6116,7 +6119,7 @@
     </row>
     <row r="84">
       <c r="A84" s="257" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" s="259"/>
       <c r="C84" s="259"/>
@@ -7538,7 +7541,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="254"/>
       <c r="C1" s="254"/>
@@ -7554,7 +7557,7 @@
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="252" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="252"/>
       <c r="C2" s="252"/>
@@ -7570,7 +7573,7 @@
     </row>
     <row r="3">
       <c r="A3" s="246" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="241"/>
       <c r="C3" s="241"/>
@@ -7582,51 +7585,51 @@
       <c r="I3" s="241"/>
       <c r="J3" s="241"/>
       <c r="L3" s="242" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="8.1" customHeight="1"/>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="240" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="244" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="244" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="244" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="244" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="244" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="244" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="244" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="244" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" s="244" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="260" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="261"/>
       <c r="C6" s="261"/>
@@ -7642,7 +7645,7 @@
     </row>
     <row r="7" outlineLevel="2">
       <c r="A7" s="262" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="263"/>
       <c r="C7" s="263"/>
@@ -7697,7 +7700,7 @@
     <row r="9" outlineLevel="2"/>
     <row r="10" outlineLevel="2">
       <c r="A10" s="262" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="263"/>
       <c r="C10" s="263"/>
@@ -7752,7 +7755,7 @@
     <row r="12" outlineLevel="2"/>
     <row r="13" outlineLevel="1">
       <c r="A13" s="264" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="263"/>
       <c r="C13" s="263"/>
@@ -7807,7 +7810,7 @@
     <row r="15" outlineLevel="1"/>
     <row r="16" outlineLevel="2">
       <c r="A16" s="262" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="263"/>
       <c r="C16" s="263"/>
@@ -8774,7 +8777,7 @@
     <row r="42" outlineLevel="2"/>
     <row r="43" outlineLevel="2">
       <c r="A43" s="264" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="263"/>
       <c r="C43" s="263"/>
@@ -9741,7 +9744,7 @@
     <row r="69" outlineLevel="2"/>
     <row r="70" outlineLevel="2">
       <c r="A70" s="262" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B70" s="263"/>
       <c r="C70" s="263"/>
@@ -10708,7 +10711,7 @@
     <row r="96" outlineLevel="2"/>
     <row r="97" outlineLevel="2">
       <c r="A97" s="262" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B97" s="263"/>
       <c r="C97" s="263"/>
@@ -12093,7 +12096,7 @@
     <row r="134" outlineLevel="2"/>
     <row r="135" outlineLevel="2">
       <c r="A135" s="264" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B135" s="263"/>
       <c r="C135" s="263"/>
@@ -13478,7 +13481,7 @@
     <row r="172" outlineLevel="2"/>
     <row r="173" outlineLevel="2">
       <c r="A173" s="262" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B173" s="263"/>
       <c r="C173" s="263"/>
@@ -14445,7 +14448,7 @@
     <row r="199" outlineLevel="2"/>
     <row r="200" outlineLevel="2">
       <c r="A200" s="264" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B200" s="263"/>
       <c r="C200" s="263"/>
@@ -15412,7 +15415,7 @@
     <row r="226" outlineLevel="2"/>
     <row r="227" outlineLevel="2">
       <c r="A227" s="264" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B227" s="263"/>
       <c r="C227" s="263"/>
@@ -16797,7 +16800,7 @@
     <row r="264" outlineLevel="2"/>
     <row r="265" outlineLevel="1">
       <c r="A265" s="264" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B265" s="263"/>
       <c r="C265" s="263"/>
@@ -18182,7 +18185,7 @@
     <row r="302" outlineLevel="1"/>
     <row r="303" outlineLevel="2">
       <c r="A303" s="262" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B303" s="263"/>
       <c r="C303" s="263"/>
@@ -19567,7 +19570,7 @@
     <row r="340" outlineLevel="2"/>
     <row r="341" outlineLevel="2">
       <c r="A341" s="262" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B341" s="263"/>
       <c r="C341" s="263"/>
@@ -20952,7 +20955,7 @@
     <row r="378" outlineLevel="2"/>
     <row r="379" outlineLevel="2">
       <c r="A379" s="264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B379" s="263"/>
       <c r="C379" s="263"/>
@@ -22337,7 +22340,7 @@
     <row r="416" outlineLevel="2"/>
     <row r="417" outlineLevel="2">
       <c r="A417" s="262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B417" s="263"/>
       <c r="C417" s="263"/>
@@ -23722,7 +23725,7 @@
     <row r="454" outlineLevel="2"/>
     <row r="455" outlineLevel="2">
       <c r="A455" s="262" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B455" s="263"/>
       <c r="C455" s="263"/>
@@ -25107,7 +25110,7 @@
     <row r="492" outlineLevel="2"/>
     <row r="493" outlineLevel="2">
       <c r="A493" s="262" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B493" s="263"/>
       <c r="C493" s="263"/>
@@ -26492,7 +26495,7 @@
     <row r="530" outlineLevel="2"/>
     <row r="531" outlineLevel="2">
       <c r="A531" s="262" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B531" s="263"/>
       <c r="C531" s="263"/>
@@ -27877,7 +27880,7 @@
     <row r="568" outlineLevel="2"/>
     <row r="569" outlineLevel="2">
       <c r="A569" s="264" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B569" s="263"/>
       <c r="C569" s="263"/>
@@ -29262,7 +29265,7 @@
     <row r="606" outlineLevel="2"/>
     <row r="607" outlineLevel="2">
       <c r="A607" s="264" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B607" s="263"/>
       <c r="C607" s="263"/>
@@ -30647,7 +30650,7 @@
     <row r="644" outlineLevel="2"/>
     <row r="645" outlineLevel="2">
       <c r="A645" s="262" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B645" s="263"/>
       <c r="C645" s="263"/>
@@ -32032,7 +32035,7 @@
     <row r="682" outlineLevel="2"/>
     <row r="683" outlineLevel="2">
       <c r="A683" s="262" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B683" s="263"/>
       <c r="C683" s="263"/>
@@ -33417,7 +33420,7 @@
     <row r="720" outlineLevel="2"/>
     <row r="721" outlineLevel="2">
       <c r="A721" s="264" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B721" s="263"/>
       <c r="C721" s="263"/>
@@ -34802,7 +34805,7 @@
     <row r="758" outlineLevel="2"/>
     <row r="759" outlineLevel="2">
       <c r="A759" s="264" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B759" s="263"/>
       <c r="C759" s="263"/>
@@ -36187,7 +36190,7 @@
     <row r="796" outlineLevel="2"/>
     <row r="797" outlineLevel="2">
       <c r="A797" s="262" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B797" s="263"/>
       <c r="C797" s="263"/>
@@ -37572,7 +37575,7 @@
     <row r="834" outlineLevel="2"/>
     <row r="835" outlineLevel="2">
       <c r="A835" s="262" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B835" s="263"/>
       <c r="C835" s="263"/>
@@ -38957,7 +38960,7 @@
     <row r="872" outlineLevel="2"/>
     <row r="873" outlineLevel="2">
       <c r="A873" s="262" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B873" s="263"/>
       <c r="C873" s="263"/>
@@ -40342,7 +40345,7 @@
     <row r="910" outlineLevel="2"/>
     <row r="911" outlineLevel="2">
       <c r="A911" s="262" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B911" s="263"/>
       <c r="C911" s="263"/>
@@ -41727,7 +41730,7 @@
     <row r="948" outlineLevel="2"/>
     <row r="949" outlineLevel="2">
       <c r="A949" s="264" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B949" s="263"/>
       <c r="C949" s="263"/>
@@ -43112,7 +43115,7 @@
     <row r="986" outlineLevel="2"/>
     <row r="987" outlineLevel="2">
       <c r="A987" s="262" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B987" s="263"/>
       <c r="C987" s="263"/>
@@ -44497,7 +44500,7 @@
     <row r="1024" outlineLevel="2"/>
     <row r="1025" outlineLevel="1">
       <c r="A1025" s="264" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1025" s="263"/>
       <c r="C1025" s="263"/>
@@ -45882,7 +45885,7 @@
     <row r="1062" outlineLevel="1"/>
     <row r="1063">
       <c r="A1063" s="264" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1063" s="263"/>
       <c r="C1063" s="263"/>
@@ -47266,7 +47269,7 @@
     </row>
     <row r="1101">
       <c r="A1101" s="260" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1101" s="261"/>
       <c r="C1101" s="261"/>
@@ -47282,7 +47285,7 @@
     </row>
     <row r="1102" outlineLevel="2">
       <c r="A1102" s="262" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1102" s="263"/>
       <c r="C1102" s="263"/>
@@ -48667,7 +48670,7 @@
     <row r="1139" outlineLevel="2"/>
     <row r="1140" outlineLevel="2">
       <c r="A1140" s="262" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1140" s="263"/>
       <c r="C1140" s="263"/>
@@ -50052,7 +50055,7 @@
     <row r="1177" outlineLevel="2"/>
     <row r="1178" outlineLevel="2">
       <c r="A1178" s="262" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1178" s="263"/>
       <c r="C1178" s="263"/>
@@ -51437,7 +51440,7 @@
     <row r="1215" outlineLevel="2"/>
     <row r="1216" outlineLevel="2">
       <c r="A1216" s="262" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1216" s="263"/>
       <c r="C1216" s="263"/>
@@ -52822,7 +52825,7 @@
     <row r="1253" outlineLevel="2"/>
     <row r="1254" outlineLevel="2">
       <c r="A1254" s="262" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1254" s="263"/>
       <c r="C1254" s="263"/>
@@ -54207,7 +54210,7 @@
     <row r="1291" outlineLevel="2"/>
     <row r="1292" outlineLevel="1">
       <c r="A1292" s="264" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1292" s="263"/>
       <c r="C1292" s="263"/>
@@ -55592,7 +55595,7 @@
     <row r="1329" outlineLevel="1"/>
     <row r="1330">
       <c r="A1330" s="264" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1330" s="263"/>
       <c r="C1330" s="263"/>
@@ -56976,7 +56979,7 @@
     </row>
     <row r="1368">
       <c r="A1368" s="260" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1368" s="261"/>
       <c r="C1368" s="261"/>
@@ -56992,7 +56995,7 @@
     </row>
     <row r="1369">
       <c r="A1369" s="264" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1369" s="263"/>
       <c r="C1369" s="263"/>
@@ -58393,7 +58396,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:N1"/>
@@ -58535,6 +58538,11 @@
     <row r="16">
       <c r="A16" s="227" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="227" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -58634,31 +58642,31 @@
         <v>43830</v>
       </c>
       <c r="B1" s="243" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="250" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">

--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)-Base_Real_Cash_Flow.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)-Base_Real_Cash_Flow.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Disclaimer</t>
   </si>
@@ -80,9 +80,6 @@
     <t xml:space="preserve">Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
   </si>
   <si>
-    <t>AllowNegative: Allow negative on Lattice</t>
-  </si>
-  <si>
     <t>MONTHLY CASH FLOW REPORT</t>
   </si>
   <si>
@@ -92,7 +89,7 @@
     <t xml:space="preserve">Cycle: December, 2019        Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Printed on: 04/13/20 2:03:49 PM</t>
+    <t>Printed on: 04/16/20 2:12:10 PM</t>
   </si>
   <si>
     <t>Date</t>
@@ -3229,7 +3226,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="251" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="251"/>
       <c r="C1" s="251"/>
@@ -3245,7 +3242,7 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="252"/>
       <c r="C2" s="253"/>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="239" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="241"/>
       <c r="C3" s="241"/>
@@ -3274,12 +3271,12 @@
       <c r="J3" s="241"/>
       <c r="K3" s="241"/>
       <c r="L3" s="242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="239" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="241"/>
       <c r="C4" s="241"/>
@@ -3294,7 +3291,7 @@
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="239" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="241"/>
       <c r="C5" s="241"/>
@@ -3307,51 +3304,51 @@
       <c r="J5" s="241"/>
       <c r="K5" s="241"/>
       <c r="L5" s="242" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="5.1" customHeight="1"/>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="240" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="244" t="s">
+      <c r="C7" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="D7" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="244" t="s">
+      <c r="E7" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="244" t="s">
+      <c r="F7" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="244" t="s">
+      <c r="G7" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="244" t="s">
+      <c r="H7" s="244" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="244" t="s">
+      <c r="I7" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="244" t="s">
+      <c r="J7" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="244" t="s">
+      <c r="K7" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="244" t="s">
+      <c r="L7" s="244" t="s">
         <v>31</v>
-      </c>
-      <c r="L7" s="244" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="257" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="258"/>
       <c r="C8" s="258"/>
@@ -4735,7 +4732,7 @@
     </row>
     <row r="46">
       <c r="A46" s="257" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" s="259"/>
       <c r="C46" s="259"/>
@@ -6119,7 +6116,7 @@
     </row>
     <row r="84">
       <c r="A84" s="257" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="259"/>
       <c r="C84" s="259"/>
@@ -7541,7 +7538,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="254"/>
       <c r="C1" s="254"/>
@@ -7557,7 +7554,7 @@
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="252"/>
       <c r="C2" s="252"/>
@@ -7573,7 +7570,7 @@
     </row>
     <row r="3">
       <c r="A3" s="246" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="241"/>
       <c r="C3" s="241"/>
@@ -7585,51 +7582,51 @@
       <c r="I3" s="241"/>
       <c r="J3" s="241"/>
       <c r="L3" s="242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="8.1" customHeight="1"/>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="240" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="244" t="s">
+      <c r="C5" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="D5" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="244" t="s">
+      <c r="E5" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="244" t="s">
+      <c r="F5" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="244" t="s">
+      <c r="G5" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="244" t="s">
+      <c r="H5" s="244" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="244" t="s">
+      <c r="I5" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="244" t="s">
+      <c r="J5" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="244" t="s">
+      <c r="K5" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="244" t="s">
+      <c r="L5" s="244" t="s">
         <v>31</v>
-      </c>
-      <c r="L5" s="244" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="261"/>
       <c r="C6" s="261"/>
@@ -7645,7 +7642,7 @@
     </row>
     <row r="7" outlineLevel="2">
       <c r="A7" s="262" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="263"/>
       <c r="C7" s="263"/>
@@ -7700,7 +7697,7 @@
     <row r="9" outlineLevel="2"/>
     <row r="10" outlineLevel="2">
       <c r="A10" s="262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="263"/>
       <c r="C10" s="263"/>
@@ -7755,7 +7752,7 @@
     <row r="12" outlineLevel="2"/>
     <row r="13" outlineLevel="1">
       <c r="A13" s="264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="263"/>
       <c r="C13" s="263"/>
@@ -7810,7 +7807,7 @@
     <row r="15" outlineLevel="1"/>
     <row r="16" outlineLevel="2">
       <c r="A16" s="262" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="263"/>
       <c r="C16" s="263"/>
@@ -8777,7 +8774,7 @@
     <row r="42" outlineLevel="2"/>
     <row r="43" outlineLevel="2">
       <c r="A43" s="264" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="263"/>
       <c r="C43" s="263"/>
@@ -9744,7 +9741,7 @@
     <row r="69" outlineLevel="2"/>
     <row r="70" outlineLevel="2">
       <c r="A70" s="262" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="263"/>
       <c r="C70" s="263"/>
@@ -10711,7 +10708,7 @@
     <row r="96" outlineLevel="2"/>
     <row r="97" outlineLevel="2">
       <c r="A97" s="262" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B97" s="263"/>
       <c r="C97" s="263"/>
@@ -12096,7 +12093,7 @@
     <row r="134" outlineLevel="2"/>
     <row r="135" outlineLevel="2">
       <c r="A135" s="264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B135" s="263"/>
       <c r="C135" s="263"/>
@@ -13481,7 +13478,7 @@
     <row r="172" outlineLevel="2"/>
     <row r="173" outlineLevel="2">
       <c r="A173" s="262" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B173" s="263"/>
       <c r="C173" s="263"/>
@@ -14448,7 +14445,7 @@
     <row r="199" outlineLevel="2"/>
     <row r="200" outlineLevel="2">
       <c r="A200" s="264" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B200" s="263"/>
       <c r="C200" s="263"/>
@@ -15415,7 +15412,7 @@
     <row r="226" outlineLevel="2"/>
     <row r="227" outlineLevel="2">
       <c r="A227" s="264" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B227" s="263"/>
       <c r="C227" s="263"/>
@@ -16800,7 +16797,7 @@
     <row r="264" outlineLevel="2"/>
     <row r="265" outlineLevel="1">
       <c r="A265" s="264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B265" s="263"/>
       <c r="C265" s="263"/>
@@ -18185,7 +18182,7 @@
     <row r="302" outlineLevel="1"/>
     <row r="303" outlineLevel="2">
       <c r="A303" s="262" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B303" s="263"/>
       <c r="C303" s="263"/>
@@ -19570,7 +19567,7 @@
     <row r="340" outlineLevel="2"/>
     <row r="341" outlineLevel="2">
       <c r="A341" s="262" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B341" s="263"/>
       <c r="C341" s="263"/>
@@ -20955,7 +20952,7 @@
     <row r="378" outlineLevel="2"/>
     <row r="379" outlineLevel="2">
       <c r="A379" s="264" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B379" s="263"/>
       <c r="C379" s="263"/>
@@ -22340,7 +22337,7 @@
     <row r="416" outlineLevel="2"/>
     <row r="417" outlineLevel="2">
       <c r="A417" s="262" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B417" s="263"/>
       <c r="C417" s="263"/>
@@ -23725,7 +23722,7 @@
     <row r="454" outlineLevel="2"/>
     <row r="455" outlineLevel="2">
       <c r="A455" s="262" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B455" s="263"/>
       <c r="C455" s="263"/>
@@ -25110,7 +25107,7 @@
     <row r="492" outlineLevel="2"/>
     <row r="493" outlineLevel="2">
       <c r="A493" s="262" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B493" s="263"/>
       <c r="C493" s="263"/>
@@ -26495,7 +26492,7 @@
     <row r="530" outlineLevel="2"/>
     <row r="531" outlineLevel="2">
       <c r="A531" s="262" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B531" s="263"/>
       <c r="C531" s="263"/>
@@ -27880,7 +27877,7 @@
     <row r="568" outlineLevel="2"/>
     <row r="569" outlineLevel="2">
       <c r="A569" s="264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B569" s="263"/>
       <c r="C569" s="263"/>
@@ -29265,7 +29262,7 @@
     <row r="606" outlineLevel="2"/>
     <row r="607" outlineLevel="2">
       <c r="A607" s="264" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B607" s="263"/>
       <c r="C607" s="263"/>
@@ -30650,7 +30647,7 @@
     <row r="644" outlineLevel="2"/>
     <row r="645" outlineLevel="2">
       <c r="A645" s="262" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B645" s="263"/>
       <c r="C645" s="263"/>
@@ -32035,7 +32032,7 @@
     <row r="682" outlineLevel="2"/>
     <row r="683" outlineLevel="2">
       <c r="A683" s="262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B683" s="263"/>
       <c r="C683" s="263"/>
@@ -33420,7 +33417,7 @@
     <row r="720" outlineLevel="2"/>
     <row r="721" outlineLevel="2">
       <c r="A721" s="264" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B721" s="263"/>
       <c r="C721" s="263"/>
@@ -34805,7 +34802,7 @@
     <row r="758" outlineLevel="2"/>
     <row r="759" outlineLevel="2">
       <c r="A759" s="264" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B759" s="263"/>
       <c r="C759" s="263"/>
@@ -36190,7 +36187,7 @@
     <row r="796" outlineLevel="2"/>
     <row r="797" outlineLevel="2">
       <c r="A797" s="262" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B797" s="263"/>
       <c r="C797" s="263"/>
@@ -37575,7 +37572,7 @@
     <row r="834" outlineLevel="2"/>
     <row r="835" outlineLevel="2">
       <c r="A835" s="262" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B835" s="263"/>
       <c r="C835" s="263"/>
@@ -38960,7 +38957,7 @@
     <row r="872" outlineLevel="2"/>
     <row r="873" outlineLevel="2">
       <c r="A873" s="262" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B873" s="263"/>
       <c r="C873" s="263"/>
@@ -40345,7 +40342,7 @@
     <row r="910" outlineLevel="2"/>
     <row r="911" outlineLevel="2">
       <c r="A911" s="262" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B911" s="263"/>
       <c r="C911" s="263"/>
@@ -41730,7 +41727,7 @@
     <row r="948" outlineLevel="2"/>
     <row r="949" outlineLevel="2">
       <c r="A949" s="264" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B949" s="263"/>
       <c r="C949" s="263"/>
@@ -43115,7 +43112,7 @@
     <row r="986" outlineLevel="2"/>
     <row r="987" outlineLevel="2">
       <c r="A987" s="262" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B987" s="263"/>
       <c r="C987" s="263"/>
@@ -44500,7 +44497,7 @@
     <row r="1024" outlineLevel="2"/>
     <row r="1025" outlineLevel="1">
       <c r="A1025" s="264" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1025" s="263"/>
       <c r="C1025" s="263"/>
@@ -45885,7 +45882,7 @@
     <row r="1062" outlineLevel="1"/>
     <row r="1063">
       <c r="A1063" s="264" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1063" s="263"/>
       <c r="C1063" s="263"/>
@@ -47269,7 +47266,7 @@
     </row>
     <row r="1101">
       <c r="A1101" s="260" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1101" s="261"/>
       <c r="C1101" s="261"/>
@@ -47285,7 +47282,7 @@
     </row>
     <row r="1102" outlineLevel="2">
       <c r="A1102" s="262" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1102" s="263"/>
       <c r="C1102" s="263"/>
@@ -48670,7 +48667,7 @@
     <row r="1139" outlineLevel="2"/>
     <row r="1140" outlineLevel="2">
       <c r="A1140" s="262" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1140" s="263"/>
       <c r="C1140" s="263"/>
@@ -50055,7 +50052,7 @@
     <row r="1177" outlineLevel="2"/>
     <row r="1178" outlineLevel="2">
       <c r="A1178" s="262" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1178" s="263"/>
       <c r="C1178" s="263"/>
@@ -51440,7 +51437,7 @@
     <row r="1215" outlineLevel="2"/>
     <row r="1216" outlineLevel="2">
       <c r="A1216" s="262" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1216" s="263"/>
       <c r="C1216" s="263"/>
@@ -52825,7 +52822,7 @@
     <row r="1253" outlineLevel="2"/>
     <row r="1254" outlineLevel="2">
       <c r="A1254" s="262" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1254" s="263"/>
       <c r="C1254" s="263"/>
@@ -54210,7 +54207,7 @@
     <row r="1291" outlineLevel="2"/>
     <row r="1292" outlineLevel="1">
       <c r="A1292" s="264" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1292" s="263"/>
       <c r="C1292" s="263"/>
@@ -55595,7 +55592,7 @@
     <row r="1329" outlineLevel="1"/>
     <row r="1330">
       <c r="A1330" s="264" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1330" s="263"/>
       <c r="C1330" s="263"/>
@@ -56979,7 +56976,7 @@
     </row>
     <row r="1368">
       <c r="A1368" s="260" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1368" s="261"/>
       <c r="C1368" s="261"/>
@@ -56995,7 +56992,7 @@
     </row>
     <row r="1369">
       <c r="A1369" s="264" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1369" s="263"/>
       <c r="C1369" s="263"/>
@@ -58396,7 +58393,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:N1"/>
@@ -58538,11 +58535,6 @@
     <row r="16">
       <c r="A16" s="227" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="227" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -58642,31 +58634,31 @@
         <v>43830</v>
       </c>
       <c r="B1" s="243" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="250" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="250" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2">
